--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -4,15 +4,113 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="内容准备计划" sheetId="1" r:id="rId1"/>
     <sheet name="开发计划" sheetId="2" r:id="rId2"/>
     <sheet name="试用推广计划" sheetId="3" r:id="rId3"/>
+    <sheet name="收益模式" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>系统外的知识点和题目完成整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成录题、审题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台录题、审题，老师端布置作业，学生端做题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一期系统全部功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务器购买（阿里云）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月初启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试点合作（2个机构、2000个学生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月底启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月中完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传册（网站功能介绍、简单使用流程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月初启动、中完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月初启动、中完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写“关于我们”的软文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让老师教学更轻松、让学生学习更轻松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步：自学和错题本，增加推题逻辑，自动出自学的作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步：题目的提示功能，使用充值的金蛋，金蛋可以通过高成绩获得，也可以充值获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的目标：积累系统里的教师数量和学生数量，收益通过系统外的渠道获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步：帮学生为达到一定的目标，制定学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,8 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -356,12 +455,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -370,12 +492,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -383,13 +527,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="内容准备计划" sheetId="1" r:id="rId1"/>
     <sheet name="开发计划" sheetId="2" r:id="rId2"/>
     <sheet name="试用推广计划" sheetId="3" r:id="rId3"/>
     <sheet name="收益模式" sheetId="4" r:id="rId4"/>
+    <sheet name="支出记账" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">支出记账!$B$1:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>系统外的知识点和题目完成整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12月中完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宣传册（网站功能介绍、简单使用流程）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>让老师教学更轻松、让学生学习更轻松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二步：自学和错题本，增加推题逻辑，自动出自学的作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,13 +105,177 @@
   <si>
     <t>第三步：帮学生为达到一定的目标，制定学习计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让老师教学更高效、让学生学习更轻松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月7日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云服务器就绪（2核+2G+1M带宽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始第一阶段功能的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始第二阶段以及全部功能的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛烨墩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mathhouse.cn和mathhouse.com.cn各三年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云服务器购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月初完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月初启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止11.8进度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终完成时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量（道）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点体系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细知识点三级目录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一版完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月15日定稿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目包括知识点标签，难度标签，配套好解析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已备7000题带解析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月10日按照定稿知识点打好标签</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>录题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目录入系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计12.15开工</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月15日完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核录入系统的题目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与录题同步开始</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月20日审核完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +290,53 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,13 +344,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,19 +825,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>41988</v>
       </c>
@@ -475,13 +851,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>41654</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11">
+        <v>7000</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4000</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11">
+        <v>7000</v>
+      </c>
+      <c r="F12" s="12">
+        <v>7000</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="11">
+        <v>7000</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="15">
+        <v>15000</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -492,42 +1012,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>41988</v>
+      <c r="A1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -544,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -552,38 +1098,46 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -598,7 +1152,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,32 +1162,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -641,4 +1195,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B2"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>